--- a/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30435" yWindow="2475" windowWidth="22890" windowHeight="12060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="富集明细表" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -72,6 +72,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
@@ -152,7 +153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +197,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -541,7 +551,7 @@
   <dimension ref="A1:S285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J285"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -553,11 +563,11 @@
     <col width="12.625" customWidth="1" style="4" min="5" max="14"/>
     <col width="9" customWidth="1" style="8" min="15" max="16"/>
     <col width="12.625" customWidth="1" style="4" min="17" max="19"/>
-    <col width="9" customWidth="1" style="4" min="20" max="22"/>
-    <col width="9" customWidth="1" style="4" min="23" max="16384"/>
+    <col width="9" customWidth="1" style="4" min="20" max="23"/>
+    <col width="9" customWidth="1" style="4" min="24" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.5" customHeight="1" s="15">
+    <row r="1" ht="49.5" customHeight="1" s="18">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>LIMS号</t>
@@ -655,19 +665,19 @@
       </c>
     </row>
     <row r="2" ht="17.25" customFormat="1" customHeight="1" s="13">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>GSD230808071D001</t>
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>GSD230920011D001</t>
         </is>
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>NT23880071-DF037AXXXXXFX-N002</t>
+          <t>NT239K0011-DF037AXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@1</t>
+          <t>NJ-20230921-101-A-1@1</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -754,17 +764,17 @@
     <row r="3" customFormat="1" s="13">
       <c r="A3" s="10" t="inlineStr">
         <is>
-          <t>GSD230808053D001</t>
+          <t>GSD230920010D001</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>PB23880053-DF037AXXXXXFX-N002J019</t>
+          <t>BJ239K0010-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@2</t>
+          <t>NJ-20230921-101-A-1@2</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
@@ -851,17 +861,17 @@
     <row r="4" customFormat="1" s="13">
       <c r="A4" s="10" t="inlineStr">
         <is>
-          <t>GSD230808070D001</t>
+          <t>GSD230920009D001</t>
         </is>
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>BJ23880070-DF037AXXXXXFX-N002J019</t>
+          <t>BJ239K0009-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@3</t>
+          <t>NJ-20230921-101-A-1@3</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
@@ -948,17 +958,17 @@
     <row r="5" customFormat="1" s="13">
       <c r="A5" s="10" t="inlineStr">
         <is>
-          <t>GSD230808069D001</t>
+          <t>GSD230920008D001</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>BJ23880069-DF037AXXXXXFX-N002J019</t>
+          <t>BJ239K0008-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@4</t>
+          <t>NJ-20230921-101-A-1@4</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
@@ -1043,19 +1053,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>GSD230808068D001</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>BJ23880068-DF037AXXXXXFX-N002J019</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-A-1@5</t>
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>GSD230920001D002</t>
+        </is>
+      </c>
+      <c r="B6" s="16" t="inlineStr">
+        <is>
+          <t>PB239K0001-DF037AXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230921-101-A-1@5</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -1142,17 +1152,17 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GSD230808067D001</t>
+          <t>GSD230920004D001</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>BJ23880067-DF037AXXXXXFX-N002J019</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-A-1@6</t>
+          <t>PB239K0004-DF037AXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="C7" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230921-101-A-1@6</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -1239,17 +1249,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GSD230808066D001</t>
+          <t>GSD230920003D001</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>BJ23880066-DF037AXXXXXFX-N002J019</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-A-1@7</t>
+          <t>PB239K0003-DF037AXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230921-101-A-1@7</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -1336,17 +1346,17 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GSD230808036D002</t>
+          <t>GSD230920002D001</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>PB23880036-DF037AXXXXXFX-N002J019</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-A-1@8</t>
+          <t>PB239K0002-DF037AXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="C9" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230921-101-A-1@8</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -1433,17 +1443,17 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GSD230808055D001</t>
+          <t>GSD230920001D001</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>PB23880055-DF037AXXXXXFX-N002J019</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-A-1@9</t>
+          <t>PB239K0001-DF037AXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="C10" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230921-101-A-1@9</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -1538,9 +1548,9 @@
           <t>PB23880054-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-201-B-1@1</t>
+      <c r="C11" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@10</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -1635,9 +1645,9 @@
           <t>PB23880052-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-B-1@1</t>
+      <c r="C12" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@11</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
@@ -1732,9 +1742,9 @@
           <t>PB23880043-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-B-1@2</t>
+      <c r="C13" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@12</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -1829,9 +1839,9 @@
           <t>PB23880051-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-B-1@3</t>
+      <c r="C14" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@13</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -1926,9 +1936,9 @@
           <t>PB23880050-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-B-1@4</t>
+      <c r="C15" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@14</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -2023,9 +2033,9 @@
           <t>PB23880049-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-B-1@5</t>
+      <c r="C16" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@15</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -2120,9 +2130,9 @@
           <t>PB23880048-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-B-1@6</t>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@16</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -2217,9 +2227,9 @@
           <t>PB23880047-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-B-1@7</t>
+      <c r="C18" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@17</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
@@ -2314,9 +2324,9 @@
           <t>PB23880046-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-B-1@8</t>
+      <c r="C19" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@18</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -2411,9 +2421,9 @@
           <t>PB23880045-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-B-1@9</t>
+      <c r="C20" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@19</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -2508,9 +2518,9 @@
           <t>PB23880044-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-201-B-1@2</t>
+      <c r="C21" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@20</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -2605,9 +2615,9 @@
           <t>PB23880042-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-C-1@1</t>
+      <c r="C22" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@21</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -2702,9 +2712,9 @@
           <t>PB23880041-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-C-1@2</t>
+      <c r="C23" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@22</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -2799,9 +2809,9 @@
           <t>PB23880040-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-C-1@3</t>
+      <c r="C24" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@23</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -2896,9 +2906,9 @@
           <t>PB23880039-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-C-1@4</t>
+      <c r="C25" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@24</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
@@ -2993,9 +3003,9 @@
           <t>PB23880038-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C26" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-C-1@5</t>
+      <c r="C26" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@25</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -3090,9 +3100,9 @@
           <t>PB23880037-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-C-1@6</t>
+      <c r="C27" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@26</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
@@ -3187,9 +3197,9 @@
           <t>PB23880036-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C28" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-C-1@7</t>
+      <c r="C28" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@27</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
@@ -3284,9 +3294,9 @@
           <t>PB23870019-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-C-1@8</t>
+      <c r="C29" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@28</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
@@ -3381,9 +3391,9 @@
           <t>PB23870010-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-C-1@9</t>
+      <c r="C30" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@29</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
@@ -3478,9 +3488,9 @@
           <t>PB23870018-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-201-B-1@3</t>
+      <c r="C31" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@30</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
@@ -3575,9 +3585,9 @@
           <t>PB23870017-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-D-1@1</t>
+      <c r="C32" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@31</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
@@ -3662,19 +3672,19 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="inlineStr">
+      <c r="A33" s="17" t="inlineStr">
         <is>
           <t>GSD230807016D001</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
+      <c r="B33" s="17" t="inlineStr">
         <is>
           <t>PB23870016-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-D-1@2</t>
+      <c r="C33" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@32</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
@@ -3759,19 +3769,19 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr">
+      <c r="A34" s="17" t="inlineStr">
         <is>
           <t>GSD230807015D001</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
+      <c r="B34" s="17" t="inlineStr">
         <is>
           <t>PB23870015-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-D-1@3</t>
+      <c r="C34" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@33</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
@@ -3856,19 +3866,19 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="inlineStr">
+      <c r="A35" s="17" t="inlineStr">
         <is>
           <t>GSD230807014D001</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
+      <c r="B35" s="17" t="inlineStr">
         <is>
           <t>PB23870014-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-D-1@4</t>
+      <c r="C35" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@34</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
@@ -3953,19 +3963,19 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="inlineStr">
+      <c r="A36" s="17" t="inlineStr">
         <is>
           <t>GSD230807013D001</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
+      <c r="B36" s="17" t="inlineStr">
         <is>
           <t>PB23870013-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-D-1@5</t>
+      <c r="C36" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@35</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
@@ -4050,19 +4060,19 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="inlineStr">
+      <c r="A37" s="17" t="inlineStr">
         <is>
           <t>GSD230807012D001</t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
+      <c r="B37" s="17" t="inlineStr">
         <is>
           <t>PB23870012-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-D-1@6</t>
+      <c r="C37" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@36</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
@@ -4147,19 +4157,19 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="inlineStr">
+      <c r="A38" s="17" t="inlineStr">
         <is>
           <t>GSD230807011D001</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
+      <c r="B38" s="17" t="inlineStr">
         <is>
           <t>PB23870011-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-D-1@7</t>
+      <c r="C38" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@37</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
@@ -4244,19 +4254,19 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="inlineStr">
+      <c r="A39" s="17" t="inlineStr">
         <is>
           <t>GSD230807009D001</t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
+      <c r="B39" s="17" t="inlineStr">
         <is>
           <t>PB23870009-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C39" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-D-1@8</t>
+      <c r="C39" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@38</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
@@ -4341,19 +4351,19 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="inlineStr">
+      <c r="A40" s="17" t="inlineStr">
         <is>
           <t>GSD230807008D001</t>
         </is>
       </c>
-      <c r="B40" s="0" t="inlineStr">
+      <c r="B40" s="17" t="inlineStr">
         <is>
           <t>PB23870008-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C40" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-D-1@9</t>
+      <c r="C40" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@39</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
@@ -4438,19 +4448,19 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="inlineStr">
+      <c r="A41" s="17" t="inlineStr">
         <is>
           <t>GSD230807007D001</t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
+      <c r="B41" s="17" t="inlineStr">
         <is>
           <t>PB23870007-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-201-B-1@4</t>
+      <c r="C41" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@40</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
@@ -4535,19 +4545,19 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="inlineStr">
+      <c r="A42" s="17" t="inlineStr">
         <is>
           <t>GSD230807006D001</t>
         </is>
       </c>
-      <c r="B42" s="0" t="inlineStr">
+      <c r="B42" s="17" t="inlineStr">
         <is>
           <t>PB23870006-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C42" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-E-1@1</t>
+      <c r="C42" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@41</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr">
@@ -4632,19 +4642,19 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr">
+      <c r="A43" s="17" t="inlineStr">
         <is>
           <t>GSD230807005D001</t>
         </is>
       </c>
-      <c r="B43" s="0" t="inlineStr">
+      <c r="B43" s="17" t="inlineStr">
         <is>
           <t>PB23870005-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-E-1@2</t>
+      <c r="C43" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@42</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
@@ -4729,19 +4739,19 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="inlineStr">
+      <c r="A44" s="17" t="inlineStr">
         <is>
           <t>GSD230807004D001</t>
         </is>
       </c>
-      <c r="B44" s="0" t="inlineStr">
+      <c r="B44" s="17" t="inlineStr">
         <is>
           <t>PB23870004-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-E-1@3</t>
+      <c r="C44" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@43</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
@@ -4826,19 +4836,19 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="inlineStr">
+      <c r="A45" s="17" t="inlineStr">
         <is>
           <t>GSD230807003D001</t>
         </is>
       </c>
-      <c r="B45" s="0" t="inlineStr">
+      <c r="B45" s="17" t="inlineStr">
         <is>
           <t>PB23870003-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>NJ-20230808-101-E-1@4</t>
+      <c r="C45" s="17" t="inlineStr">
+        <is>
+          <t>NJ-20230914-101-A-1@44</t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr">
@@ -24605,8 +24615,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="NJ-20230707-101-A-1@1" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="NJ-20230707-101-A-1@1" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="NJ-20230915-101-A-1@1" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="NJ-20230915-101-A-1@1" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="NJ-20230915-101-A-1@1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
@@ -667,17 +667,17 @@
     <row r="2" ht="17.25" customFormat="1" customHeight="1" s="13">
       <c r="A2" s="15" t="inlineStr">
         <is>
-          <t>GSD230920011D001</t>
+          <t>GSD230925036D001</t>
         </is>
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>NT239K0011-DF037AXXXXXFX-N002</t>
+          <t>NT239Q0036-DF037AXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@1</t>
+          <t>NJ-20230925-101-A-1@1</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -764,17 +764,17 @@
     <row r="3" customFormat="1" s="13">
       <c r="A3" s="10" t="inlineStr">
         <is>
-          <t>GSD230920010D001</t>
+          <t>GSD230925018D001</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>BJ239K0010-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0018-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@2</t>
+          <t>NJ-20230925-101-A-1@2</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
@@ -861,17 +861,17 @@
     <row r="4" customFormat="1" s="13">
       <c r="A4" s="10" t="inlineStr">
         <is>
-          <t>GSD230920009D001</t>
+          <t>GSD230925035D001</t>
         </is>
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>BJ239K0009-DF037AXXXXXFX-N002J019</t>
+          <t>BJ239Q0035-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@3</t>
+          <t>NJ-20230925-101-A-1@3</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
@@ -958,17 +958,17 @@
     <row r="5" customFormat="1" s="13">
       <c r="A5" s="10" t="inlineStr">
         <is>
-          <t>GSD230920008D001</t>
+          <t>GSD230925034D001</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>BJ239K0008-DF037AXXXXXFX-N002J019</t>
+          <t>BJ239Q0034-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@4</t>
+          <t>NJ-20230925-101-A-1@4</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
@@ -1055,17 +1055,17 @@
     <row r="6">
       <c r="A6" s="16" t="inlineStr">
         <is>
-          <t>GSD230920001D002</t>
+          <t>GSD230925033D001</t>
         </is>
       </c>
       <c r="B6" s="16" t="inlineStr">
         <is>
-          <t>PB239K0001-DF037AXXXXXFX-N002J019</t>
+          <t>BJ239Q0033-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C6" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@5</t>
+          <t>NJ-20230925-101-A-1@5</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -1152,17 +1152,17 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GSD230920004D001</t>
+          <t>GSD230925032D001</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>PB239K0004-DF037AXXXXXFX-N002J019</t>
+          <t>BJ239Q0032-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C7" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@6</t>
+          <t>NJ-20230925-101-A-1@6</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -1249,17 +1249,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GSD230920003D001</t>
+          <t>GSD230925031D001</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>PB239K0003-DF037AXXXXXFX-N002J019</t>
+          <t>BJ239Q0031-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@7</t>
+          <t>NJ-20230925-101-A-1@7</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -1346,17 +1346,17 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GSD230920002D001</t>
+          <t>GSD230925001D002</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>PB239K0002-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0001-DF037AXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C9" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@8</t>
+          <t>NJ-20230925-101-A-1@8</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -1443,17 +1443,17 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GSD230920001D001</t>
+          <t>GSD230925020D001</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>PB239K0001-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0020-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C10" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@9</t>
+          <t>NJ-20230925-101-A-1@9</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -1540,17 +1540,17 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GSD230808054D001</t>
+          <t>GSD230925019D001</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>PB23880054-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0019-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C11" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@10</t>
+          <t>NJ-20230925-201-B-1@1</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -1637,17 +1637,17 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GSD230808052D001</t>
+          <t>GSD230925017D001</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>PB23880052-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0017-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C12" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@11</t>
+          <t>NJ-20230925-101-B-1@1</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
@@ -1734,17 +1734,17 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GSD230808043D001</t>
+          <t>GSD230925008D001</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>PB23880043-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0008-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C13" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@12</t>
+          <t>NJ-20230925-101-B-1@2</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -1831,17 +1831,17 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GSD230808051D001</t>
+          <t>GSD230925016D001</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>PB23880051-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0016-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C14" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@13</t>
+          <t>NJ-20230925-101-B-1@3</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -1928,17 +1928,17 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GSD230808050D001</t>
+          <t>GSD230925015D001</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>PB23880050-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0015-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C15" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@14</t>
+          <t>NJ-20230925-101-B-1@4</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -2025,17 +2025,17 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GSD230808049D001</t>
+          <t>GSD230925014D001</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>PB23880049-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0014-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C16" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@15</t>
+          <t>NJ-20230925-101-B-1@5</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -2122,17 +2122,17 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GSD230808048D001</t>
+          <t>GSD230925013D001</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>PB23880048-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0013-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@16</t>
+          <t>NJ-20230925-101-B-1@6</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -2219,17 +2219,17 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GSD230808047D001</t>
+          <t>GSD230925012D001</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>PB23880047-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0012-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C18" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@17</t>
+          <t>NJ-20230925-101-B-1@7</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
@@ -2316,17 +2316,17 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GSD230808046D001</t>
+          <t>GSD230925011D001</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>PB23880046-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0011-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C19" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@18</t>
+          <t>NJ-20230925-101-B-1@8</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -2413,17 +2413,17 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>GSD230808045D001</t>
+          <t>GSD230925010D001</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>PB23880045-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0010-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C20" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@19</t>
+          <t>NJ-20230925-101-B-1@9</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -2510,17 +2510,17 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>GSD230808044D001</t>
+          <t>GSD230925009D001</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>PB23880044-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0009-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C21" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@20</t>
+          <t>NJ-20230925-201-B-1@2</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -2607,17 +2607,17 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>GSD230808042D001</t>
+          <t>GSD230925007D001</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>PB23880042-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0007-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C22" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@21</t>
+          <t>NJ-20230925-101-C-1@1</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>GSD230808041D001</t>
+          <t>GSD230925006D001</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>PB23880041-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0006-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C23" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@22</t>
+          <t>NJ-20230925-101-C-1@2</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -2801,17 +2801,17 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>GSD230808040D001</t>
+          <t>GSD230925005D001</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>PB23880040-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0005-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C24" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@23</t>
+          <t>NJ-20230925-101-C-1@3</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -2898,17 +2898,17 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>GSD230808039D001</t>
+          <t>GSD230925004D001</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>PB23880039-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0004-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C25" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@24</t>
+          <t>NJ-20230925-101-C-1@4</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
@@ -2995,17 +2995,17 @@
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>GSD230808038D001</t>
+          <t>GSD230925003D001</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>PB23880038-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0003-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@25</t>
+          <t>NJ-20230925-101-C-1@5</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -3092,17 +3092,17 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>GSD230808037D001</t>
+          <t>GSD230925002D001</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>PB23880037-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0002-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C27" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@26</t>
+          <t>NJ-20230925-101-C-1@6</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
@@ -3189,17 +3189,17 @@
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>GSD230808036D001</t>
+          <t>GSD230925001D001</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>PB23880036-DF037AXXXXXFX-N002J019</t>
+          <t>PB239Q0001-XXXXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C28" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@27</t>
+          <t>NJ-20230925-101-C-1@7</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">

--- a/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
@@ -667,17 +667,17 @@
     <row r="2" ht="17.25" customFormat="1" customHeight="1" s="13">
       <c r="A2" s="15" t="inlineStr">
         <is>
-          <t>GSD230925036D001</t>
+          <t>GSD230926091D001</t>
         </is>
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>NT239Q0036-DF037AXXXXXFX-N002</t>
+          <t>NT239R0091-DF037AXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@1</t>
+          <t>NJ-20230926-101-A-1@1</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -764,17 +764,17 @@
     <row r="3" customFormat="1" s="13">
       <c r="A3" s="10" t="inlineStr">
         <is>
-          <t>GSD230925018D001</t>
+          <t>GSD230926073D001</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>PB239Q0018-XXXXXXXXXFX-N002</t>
+          <t>PB239R0073-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@2</t>
+          <t>NJ-20230926-101-A-1@2</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
@@ -861,17 +861,17 @@
     <row r="4" customFormat="1" s="13">
       <c r="A4" s="10" t="inlineStr">
         <is>
-          <t>GSD230925035D001</t>
+          <t>GSD230926090D001</t>
         </is>
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>BJ239Q0035-XXXXXXXXXFX-N002</t>
+          <t>BJ239R0090-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@3</t>
+          <t>NJ-20230926-101-A-1@3</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
@@ -958,17 +958,17 @@
     <row r="5" customFormat="1" s="13">
       <c r="A5" s="10" t="inlineStr">
         <is>
-          <t>GSD230925034D001</t>
+          <t>GSD230926089D001</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>BJ239Q0034-XXXXXXXXXFX-N002</t>
+          <t>BJ239R0089-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@4</t>
+          <t>NJ-20230926-101-A-1@4</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
@@ -1055,17 +1055,17 @@
     <row r="6">
       <c r="A6" s="16" t="inlineStr">
         <is>
-          <t>GSD230925033D001</t>
+          <t>GSD230926088D001</t>
         </is>
       </c>
       <c r="B6" s="16" t="inlineStr">
         <is>
-          <t>BJ239Q0033-XXXXXXXXXFX-N002</t>
+          <t>BJ239R0088-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C6" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@5</t>
+          <t>NJ-20230926-101-A-1@5</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -1152,17 +1152,17 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GSD230925032D001</t>
+          <t>GSD230926087D001</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>BJ239Q0032-XXXXXXXXXFX-N002</t>
+          <t>BJ239R0087-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C7" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@6</t>
+          <t>NJ-20230926-101-A-1@6</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -1249,17 +1249,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GSD230925031D001</t>
+          <t>GSD230926086D001</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>BJ239Q0031-XXXXXXXXXFX-N002</t>
+          <t>BJ239R0086-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@7</t>
+          <t>NJ-20230926-101-A-1@7</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -1346,17 +1346,17 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GSD230925001D002</t>
+          <t>GSD230926056D002</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0001-DF037AXXXXXFX-N002</t>
+          <t>PB239R0056-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C9" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@8</t>
+          <t>NJ-20230926-101-A-1@8</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -1443,17 +1443,17 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GSD230925020D001</t>
+          <t>GSD230926075D001</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0020-XXXXXXXXXFX-N002</t>
+          <t>PB239R0075-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C10" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@9</t>
+          <t>NJ-20230926-101-A-1@9</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -1540,17 +1540,17 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GSD230925019D001</t>
+          <t>GSD230926074D001</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0019-XXXXXXXXXFX-N002</t>
+          <t>PB239R0074-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C11" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-201-B-1@1</t>
+          <t>NJ-20230926-201-B-1@1</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -1637,17 +1637,17 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GSD230925017D001</t>
+          <t>GSD230926072D001</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0017-XXXXXXXXXFX-N002</t>
+          <t>PB239R0072-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C12" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@1</t>
+          <t>NJ-20230926-101-B-1@1</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
@@ -1734,17 +1734,17 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GSD230925008D001</t>
+          <t>GSD230926063D001</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0008-XXXXXXXXXFX-N002</t>
+          <t>PB239R0063-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C13" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@2</t>
+          <t>NJ-20230926-101-B-1@2</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -1831,17 +1831,17 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GSD230925016D001</t>
+          <t>GSD230926071D001</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0016-XXXXXXXXXFX-N002</t>
+          <t>PB239R0071-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C14" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@3</t>
+          <t>NJ-20230926-101-B-1@3</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -1928,17 +1928,17 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GSD230925015D001</t>
+          <t>GSD230926070D001</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0015-XXXXXXXXXFX-N002</t>
+          <t>PB239R0070-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C15" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@4</t>
+          <t>NJ-20230926-101-B-1@4</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -2025,17 +2025,17 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GSD230925014D001</t>
+          <t>GSD230926069D001</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0014-XXXXXXXXXFX-N002</t>
+          <t>PB239R0069-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C16" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@5</t>
+          <t>NJ-20230926-101-B-1@5</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -2122,17 +2122,17 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GSD230925013D001</t>
+          <t>GSD230926068D001</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0013-XXXXXXXXXFX-N002</t>
+          <t>PB239R0068-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@6</t>
+          <t>NJ-20230926-101-B-1@6</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -2219,17 +2219,17 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GSD230925012D001</t>
+          <t>GSD230926067D001</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0012-XXXXXXXXXFX-N002</t>
+          <t>PB239R0067-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C18" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@7</t>
+          <t>NJ-20230926-101-B-1@7</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
@@ -2316,17 +2316,17 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GSD230925011D001</t>
+          <t>GSD230926066D001</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0011-XXXXXXXXXFX-N002</t>
+          <t>PB239R0066-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C19" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@8</t>
+          <t>NJ-20230926-101-B-1@8</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -2413,17 +2413,17 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>GSD230925010D001</t>
+          <t>GSD230926065D001</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0010-XXXXXXXXXFX-N002</t>
+          <t>PB239R0065-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C20" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@9</t>
+          <t>NJ-20230926-101-B-1@9</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -2510,17 +2510,17 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>GSD230925009D001</t>
+          <t>GSD230926064D001</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0009-XXXXXXXXXFX-N002</t>
+          <t>PB239R0064-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C21" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-201-B-1@2</t>
+          <t>NJ-20230926-201-B-1@2</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -2607,17 +2607,17 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>GSD230925007D001</t>
+          <t>GSD230926062D001</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0007-XXXXXXXXXFX-N002</t>
+          <t>PB239R0062-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C22" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@1</t>
+          <t>NJ-20230926-101-C-1@1</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>GSD230925006D001</t>
+          <t>GSD230926061D001</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0006-XXXXXXXXXFX-N002</t>
+          <t>PB239R0061-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C23" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@2</t>
+          <t>NJ-20230926-101-C-1@2</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -2801,17 +2801,17 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>GSD230925005D001</t>
+          <t>GSD230926060D001</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0005-XXXXXXXXXFX-N002</t>
+          <t>PB239R0060-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C24" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@3</t>
+          <t>NJ-20230926-101-C-1@3</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -2898,17 +2898,17 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>GSD230925004D001</t>
+          <t>GSD230926059D001</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0004-XXXXXXXXXFX-N002</t>
+          <t>PB239R0059-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C25" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@4</t>
+          <t>NJ-20230926-101-C-1@4</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
@@ -2995,17 +2995,17 @@
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>GSD230925003D001</t>
+          <t>GSD230926058D001</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0003-XXXXXXXXXFX-N002</t>
+          <t>PB239R0058-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@5</t>
+          <t>NJ-20230926-101-C-1@5</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -3092,17 +3092,17 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>GSD230925002D001</t>
+          <t>GSD230926057D001</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0002-XXXXXXXXXFX-N002</t>
+          <t>PB239R0057-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C27" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@6</t>
+          <t>NJ-20230926-101-C-1@6</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
@@ -3189,17 +3189,17 @@
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>GSD230925001D001</t>
+          <t>GSD230926056D001</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>PB239Q0001-XXXXXXXXXFX-N002</t>
+          <t>PB239R0056-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C28" s="17" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@7</t>
+          <t>NJ-20230926-101-C-1@7</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">

--- a/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30435" yWindow="2475" windowWidth="22890" windowHeight="12060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="富集明细表" sheetId="1" state="visible" r:id="rId1"/>
@@ -205,10 +205,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:S285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -559,15 +559,15 @@
     <col width="31.875" customWidth="1" style="4" min="1" max="1"/>
     <col width="54.625" customWidth="1" style="4" min="2" max="2"/>
     <col width="37" customWidth="1" style="4" min="3" max="3"/>
-    <col width="10.125" customWidth="1" style="4" min="4" max="4"/>
+    <col width="9" customWidth="1" style="17" min="4" max="4"/>
     <col width="12.625" customWidth="1" style="4" min="5" max="14"/>
     <col width="9" customWidth="1" style="8" min="15" max="16"/>
     <col width="12.625" customWidth="1" style="4" min="17" max="19"/>
-    <col width="9" customWidth="1" style="4" min="20" max="23"/>
-    <col width="9" customWidth="1" style="4" min="24" max="16384"/>
+    <col width="9" customWidth="1" style="4" min="20" max="24"/>
+    <col width="9" customWidth="1" style="4" min="25" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.5" customHeight="1" s="18">
+    <row r="1" ht="49.5" customHeight="1" s="17">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>LIMS号</t>
@@ -583,7 +583,7 @@
           <t>pooling名称</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="18" t="inlineStr">
         <is>
           <t>INDEX</t>
         </is>
@@ -667,22 +667,22 @@
     <row r="2" ht="17.25" customFormat="1" customHeight="1" s="13">
       <c r="A2" s="15" t="inlineStr">
         <is>
-          <t>GSD230926091D001</t>
+          <t>GSD240104610D001</t>
         </is>
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>NT239R0091-DF037AXXXXXFX-N002</t>
+          <t>BJ24140611-DF031XXXXXFX-N002L001</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@1</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr">
-        <is>
-          <t>A1</t>
+          <t>NJ-20240111-1AFJ01</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>DU-1</t>
         </is>
       </c>
       <c r="E2" s="11" t="inlineStr">
@@ -764,22 +764,22 @@
     <row r="3" customFormat="1" s="13">
       <c r="A3" s="10" t="inlineStr">
         <is>
-          <t>GSD230926073D001</t>
+          <t>GSD240109012D001</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>PB239R0073-DF037AXXXXXFX-N002J019</t>
+          <t>PB24190012-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@2</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>A1</t>
+          <t>NJ-20240111-XXFJ02</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>DU-10</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
@@ -861,22 +861,22 @@
     <row r="4" customFormat="1" s="13">
       <c r="A4" s="10" t="inlineStr">
         <is>
-          <t>GSD230926090D001</t>
+          <t>GSD240109013D001</t>
         </is>
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>BJ239R0090-DF037AXXXXXFX-N002J019</t>
+          <t>PB24190013-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@3</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>A1</t>
+          <t>NJ-20240111-XXFJ03</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>DU-11</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
@@ -971,9 +971,9 @@
           <t>NJ-20230926-101-A-1@4</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>DU-12</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
@@ -1063,14 +1063,14 @@
           <t>BJ239R0088-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C6" s="17" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-A-1@5</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>DU-13</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -1160,14 +1160,14 @@
           <t>BJ239R0087-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-A-1@6</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>DU-14</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -1257,14 +1257,14 @@
           <t>BJ239R0086-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C8" s="17" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-A-1@7</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>DU-15</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -1354,14 +1354,14 @@
           <t>PB239R0056-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C9" s="17" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-A-1@8</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>DU-16</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -1451,14 +1451,14 @@
           <t>PB239R0075-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C10" s="17" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-A-1@9</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>DU-17</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
@@ -1548,14 +1548,14 @@
           <t>PB239R0074-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C11" s="17" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-201-B-1@1</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>DU-18</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -1645,14 +1645,14 @@
           <t>PB239R0072-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C12" s="17" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-B-1@1</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>DU-19</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
@@ -1742,14 +1742,14 @@
           <t>PB239R0063-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C13" s="17" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-B-1@2</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>DU-2</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
@@ -1839,14 +1839,14 @@
           <t>PB239R0071-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C14" s="17" t="inlineStr">
+      <c r="C14" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-B-1@3</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>DU-20</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -1936,14 +1936,14 @@
           <t>PB239R0070-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C15" s="17" t="inlineStr">
+      <c r="C15" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-B-1@4</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>DU-21</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
@@ -2033,14 +2033,14 @@
           <t>PB239R0069-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C16" s="17" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-B-1@5</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>DU-22</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
@@ -2130,14 +2130,14 @@
           <t>PB239R0068-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C17" s="17" t="inlineStr">
+      <c r="C17" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-B-1@6</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>DU-23</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -2227,14 +2227,14 @@
           <t>PB239R0067-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C18" s="17" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-B-1@7</t>
         </is>
       </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>DU-24</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
@@ -2324,14 +2324,14 @@
           <t>PB239R0066-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C19" s="17" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-B-1@8</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>DU-25</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
@@ -2421,14 +2421,14 @@
           <t>PB239R0065-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C20" s="17" t="inlineStr">
+      <c r="C20" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-B-1@9</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>DU-26</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
@@ -2518,14 +2518,14 @@
           <t>PB239R0064-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C21" s="17" t="inlineStr">
+      <c r="C21" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-201-B-1@2</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>DU-27</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
@@ -2615,14 +2615,14 @@
           <t>PB239R0062-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C22" s="17" t="inlineStr">
+      <c r="C22" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-C-1@1</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>DU-28</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
@@ -2712,14 +2712,14 @@
           <t>PB239R0061-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C23" s="17" t="inlineStr">
+      <c r="C23" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-C-1@2</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>DU-29</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
@@ -2809,14 +2809,14 @@
           <t>PB239R0060-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C24" s="17" t="inlineStr">
+      <c r="C24" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-C-1@3</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>DU-3</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
@@ -2906,14 +2906,14 @@
           <t>PB239R0059-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C25" s="17" t="inlineStr">
+      <c r="C25" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-C-1@4</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>DU-30</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
@@ -3003,14 +3003,14 @@
           <t>PB239R0058-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C26" s="17" t="inlineStr">
+      <c r="C26" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-C-1@5</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>DU-31</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
@@ -3100,14 +3100,14 @@
           <t>PB239R0057-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C27" s="17" t="inlineStr">
+      <c r="C27" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-C-1@6</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>DU-32</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
@@ -3197,14 +3197,14 @@
           <t>PB239R0056-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C28" s="17" t="inlineStr">
+      <c r="C28" s="0" t="inlineStr">
         <is>
           <t>NJ-20230926-101-C-1@7</t>
         </is>
       </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>DU-33</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
@@ -3294,14 +3294,14 @@
           <t>PB23870019-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C29" s="17" t="inlineStr">
+      <c r="C29" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@28</t>
         </is>
       </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>DU-34</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
@@ -3391,14 +3391,14 @@
           <t>PB23870010-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C30" s="17" t="inlineStr">
+      <c r="C30" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@29</t>
         </is>
       </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>DU-35</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
@@ -3488,14 +3488,14 @@
           <t>PB23870018-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C31" s="17" t="inlineStr">
+      <c r="C31" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@30</t>
         </is>
       </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>DU-36</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
@@ -3585,14 +3585,14 @@
           <t>PB23870017-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C32" s="17" t="inlineStr">
+      <c r="C32" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@31</t>
         </is>
       </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>DU-37</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
@@ -3672,24 +3672,24 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="17" t="inlineStr">
+      <c r="A33" s="0" t="inlineStr">
         <is>
           <t>GSD230807016D001</t>
         </is>
       </c>
-      <c r="B33" s="17" t="inlineStr">
+      <c r="B33" s="0" t="inlineStr">
         <is>
           <t>PB23870016-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C33" s="17" t="inlineStr">
+      <c r="C33" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@32</t>
         </is>
       </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>DU-38</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
@@ -3769,24 +3769,24 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="17" t="inlineStr">
+      <c r="A34" s="0" t="inlineStr">
         <is>
           <t>GSD230807015D001</t>
         </is>
       </c>
-      <c r="B34" s="17" t="inlineStr">
+      <c r="B34" s="0" t="inlineStr">
         <is>
           <t>PB23870015-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C34" s="17" t="inlineStr">
+      <c r="C34" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@33</t>
         </is>
       </c>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>DU-39</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
@@ -3866,24 +3866,24 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="17" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>GSD230807014D001</t>
         </is>
       </c>
-      <c r="B35" s="17" t="inlineStr">
+      <c r="B35" s="0" t="inlineStr">
         <is>
           <t>PB23870014-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C35" s="17" t="inlineStr">
+      <c r="C35" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@34</t>
         </is>
       </c>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>DU-4</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
@@ -3963,24 +3963,24 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="17" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>GSD230807013D001</t>
         </is>
       </c>
-      <c r="B36" s="17" t="inlineStr">
+      <c r="B36" s="0" t="inlineStr">
         <is>
           <t>PB23870013-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C36" s="17" t="inlineStr">
+      <c r="C36" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@35</t>
         </is>
       </c>
-      <c r="D36" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>DU-40</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
@@ -4060,24 +4060,24 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="17" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>GSD230807012D001</t>
         </is>
       </c>
-      <c r="B37" s="17" t="inlineStr">
+      <c r="B37" s="0" t="inlineStr">
         <is>
           <t>PB23870012-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C37" s="17" t="inlineStr">
+      <c r="C37" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@36</t>
         </is>
       </c>
-      <c r="D37" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>DU-41</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
@@ -4157,24 +4157,24 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="17" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>GSD230807011D001</t>
         </is>
       </c>
-      <c r="B38" s="17" t="inlineStr">
+      <c r="B38" s="0" t="inlineStr">
         <is>
           <t>PB23870011-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C38" s="17" t="inlineStr">
+      <c r="C38" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@37</t>
         </is>
       </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>DU-42</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
@@ -4254,24 +4254,24 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="17" t="inlineStr">
+      <c r="A39" s="0" t="inlineStr">
         <is>
           <t>GSD230807009D001</t>
         </is>
       </c>
-      <c r="B39" s="17" t="inlineStr">
+      <c r="B39" s="0" t="inlineStr">
         <is>
           <t>PB23870009-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C39" s="17" t="inlineStr">
+      <c r="C39" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@38</t>
         </is>
       </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>DU-43</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
@@ -4351,24 +4351,24 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="17" t="inlineStr">
+      <c r="A40" s="0" t="inlineStr">
         <is>
           <t>GSD230807008D001</t>
         </is>
       </c>
-      <c r="B40" s="17" t="inlineStr">
+      <c r="B40" s="0" t="inlineStr">
         <is>
           <t>PB23870008-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C40" s="17" t="inlineStr">
+      <c r="C40" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@39</t>
         </is>
       </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>DU-44</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
@@ -4448,24 +4448,24 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="17" t="inlineStr">
+      <c r="A41" s="0" t="inlineStr">
         <is>
           <t>GSD230807007D001</t>
         </is>
       </c>
-      <c r="B41" s="17" t="inlineStr">
+      <c r="B41" s="0" t="inlineStr">
         <is>
           <t>PB23870007-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C41" s="17" t="inlineStr">
+      <c r="C41" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@40</t>
         </is>
       </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>DU-45</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
@@ -4545,24 +4545,24 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="17" t="inlineStr">
+      <c r="A42" s="0" t="inlineStr">
         <is>
           <t>GSD230807006D001</t>
         </is>
       </c>
-      <c r="B42" s="17" t="inlineStr">
+      <c r="B42" s="0" t="inlineStr">
         <is>
           <t>PB23870006-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C42" s="17" t="inlineStr">
+      <c r="C42" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@41</t>
         </is>
       </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>DU-46</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
@@ -4642,24 +4642,24 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="17" t="inlineStr">
+      <c r="A43" s="0" t="inlineStr">
         <is>
           <t>GSD230807005D001</t>
         </is>
       </c>
-      <c r="B43" s="17" t="inlineStr">
+      <c r="B43" s="0" t="inlineStr">
         <is>
           <t>PB23870005-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C43" s="17" t="inlineStr">
+      <c r="C43" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@42</t>
         </is>
       </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>DU-47</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
@@ -4739,24 +4739,24 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="17" t="inlineStr">
+      <c r="A44" s="0" t="inlineStr">
         <is>
           <t>GSD230807004D001</t>
         </is>
       </c>
-      <c r="B44" s="17" t="inlineStr">
+      <c r="B44" s="0" t="inlineStr">
         <is>
           <t>PB23870004-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C44" s="17" t="inlineStr">
+      <c r="C44" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@43</t>
         </is>
       </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>DU-48</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
@@ -4836,24 +4836,24 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="17" t="inlineStr">
+      <c r="A45" s="0" t="inlineStr">
         <is>
           <t>GSD230807003D001</t>
         </is>
       </c>
-      <c r="B45" s="17" t="inlineStr">
+      <c r="B45" s="0" t="inlineStr">
         <is>
           <t>PB23870003-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
-      <c r="C45" s="17" t="inlineStr">
+      <c r="C45" s="0" t="inlineStr">
         <is>
           <t>NJ-20230914-101-A-1@44</t>
         </is>
       </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>DU-49</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
@@ -4933,9 +4933,9 @@
       </c>
     </row>
     <row r="46">
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>DU-5</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
@@ -5015,9 +5015,9 @@
       </c>
     </row>
     <row r="47">
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>DU-50</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
@@ -5097,9 +5097,9 @@
       </c>
     </row>
     <row r="48">
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>DU-51</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
@@ -5179,9 +5179,9 @@
       </c>
     </row>
     <row r="49">
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>DU-52</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
@@ -5261,9 +5261,9 @@
       </c>
     </row>
     <row r="50">
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>DU-53</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
@@ -5343,9 +5343,9 @@
       </c>
     </row>
     <row r="51">
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>DU-54</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
@@ -5425,9 +5425,9 @@
       </c>
     </row>
     <row r="52">
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>DU-55</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
@@ -5507,9 +5507,9 @@
       </c>
     </row>
     <row r="53">
-      <c r="D53" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>DU-56</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
@@ -5589,9 +5589,9 @@
       </c>
     </row>
     <row r="54">
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>DU-57</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
@@ -5671,9 +5671,9 @@
       </c>
     </row>
     <row r="55">
-      <c r="D55" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>DU-58</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
@@ -5753,9 +5753,9 @@
       </c>
     </row>
     <row r="56">
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>DU-59</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
@@ -5835,9 +5835,9 @@
       </c>
     </row>
     <row r="57">
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>DU-6</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
@@ -5917,9 +5917,9 @@
       </c>
     </row>
     <row r="58">
-      <c r="D58" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>DU-60</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
@@ -5999,9 +5999,9 @@
       </c>
     </row>
     <row r="59">
-      <c r="D59" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>DU-61</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
@@ -6081,9 +6081,9 @@
       </c>
     </row>
     <row r="60">
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>DU-62</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
@@ -6163,9 +6163,9 @@
       </c>
     </row>
     <row r="61">
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>DU-63</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
@@ -6245,9 +6245,9 @@
       </c>
     </row>
     <row r="62">
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>DU-64</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
@@ -6327,9 +6327,9 @@
       </c>
     </row>
     <row r="63">
-      <c r="D63" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>DU-65</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
@@ -6409,9 +6409,9 @@
       </c>
     </row>
     <row r="64">
-      <c r="D64" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>DU-66</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
@@ -6491,9 +6491,9 @@
       </c>
     </row>
     <row r="65">
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>DU-67</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
@@ -6573,9 +6573,9 @@
       </c>
     </row>
     <row r="66">
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>DU-68</t>
         </is>
       </c>
       <c r="E66" s="1" t="inlineStr">
@@ -6655,9 +6655,9 @@
       </c>
     </row>
     <row r="67">
-      <c r="D67" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>DU-69</t>
         </is>
       </c>
       <c r="E67" s="1" t="inlineStr">
@@ -6737,9 +6737,9 @@
       </c>
     </row>
     <row r="68">
-      <c r="D68" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>DU-7</t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
@@ -6819,9 +6819,9 @@
       </c>
     </row>
     <row r="69">
-      <c r="D69" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>DU-70</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
@@ -6901,9 +6901,9 @@
       </c>
     </row>
     <row r="70">
-      <c r="D70" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>DU-71</t>
         </is>
       </c>
       <c r="E70" s="1" t="inlineStr">
@@ -6983,9 +6983,9 @@
       </c>
     </row>
     <row r="71">
-      <c r="D71" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>DU-72</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
@@ -7065,9 +7065,9 @@
       </c>
     </row>
     <row r="72">
-      <c r="D72" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>DU-73</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
@@ -7147,9 +7147,9 @@
       </c>
     </row>
     <row r="73">
-      <c r="D73" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>DU-74</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
@@ -7229,9 +7229,9 @@
       </c>
     </row>
     <row r="74">
-      <c r="D74" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>DU-75</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
@@ -7311,9 +7311,9 @@
       </c>
     </row>
     <row r="75">
-      <c r="D75" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>DU-76</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
@@ -7393,9 +7393,9 @@
       </c>
     </row>
     <row r="76">
-      <c r="D76" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>DU-77</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
@@ -7475,9 +7475,9 @@
       </c>
     </row>
     <row r="77">
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>DU-78</t>
         </is>
       </c>
       <c r="E77" s="1" t="inlineStr">
@@ -7557,9 +7557,9 @@
       </c>
     </row>
     <row r="78">
-      <c r="D78" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>DU-79</t>
         </is>
       </c>
       <c r="E78" s="1" t="inlineStr">
@@ -7639,9 +7639,9 @@
       </c>
     </row>
     <row r="79">
-      <c r="D79" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>DU-8</t>
         </is>
       </c>
       <c r="E79" s="1" t="inlineStr">
@@ -7721,9 +7721,9 @@
       </c>
     </row>
     <row r="80">
-      <c r="D80" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>DU-80</t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
@@ -7803,9 +7803,9 @@
       </c>
     </row>
     <row r="81">
-      <c r="D81" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>DU-81</t>
         </is>
       </c>
       <c r="E81" s="1" t="inlineStr">
@@ -7885,9 +7885,9 @@
       </c>
     </row>
     <row r="82">
-      <c r="D82" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>DU-82</t>
         </is>
       </c>
       <c r="E82" s="1" t="inlineStr">
@@ -7967,9 +7967,9 @@
       </c>
     </row>
     <row r="83">
-      <c r="D83" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>DU-83</t>
         </is>
       </c>
       <c r="E83" s="1" t="inlineStr">
@@ -8049,9 +8049,9 @@
       </c>
     </row>
     <row r="84">
-      <c r="D84" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>DU-84</t>
         </is>
       </c>
       <c r="E84" s="1" t="inlineStr">
@@ -8131,9 +8131,9 @@
       </c>
     </row>
     <row r="85">
-      <c r="D85" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>DU-85</t>
         </is>
       </c>
       <c r="E85" s="1" t="inlineStr">
@@ -8213,9 +8213,9 @@
       </c>
     </row>
     <row r="86">
-      <c r="D86" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>DU-86</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
@@ -8295,9 +8295,9 @@
       </c>
     </row>
     <row r="87">
-      <c r="D87" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>DU-87</t>
         </is>
       </c>
       <c r="E87" s="1" t="inlineStr">
@@ -8377,9 +8377,9 @@
       </c>
     </row>
     <row r="88">
-      <c r="D88" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>DU-88</t>
         </is>
       </c>
       <c r="E88" s="1" t="inlineStr">
@@ -8459,9 +8459,9 @@
       </c>
     </row>
     <row r="89">
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>DU-89</t>
         </is>
       </c>
       <c r="E89" s="1" t="inlineStr">
@@ -8541,9 +8541,9 @@
       </c>
     </row>
     <row r="90">
-      <c r="D90" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>DU-9</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
@@ -8623,9 +8623,9 @@
       </c>
     </row>
     <row r="91">
-      <c r="D91" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>DU-90</t>
         </is>
       </c>
       <c r="E91" s="1" t="inlineStr">
@@ -8705,9 +8705,9 @@
       </c>
     </row>
     <row r="92">
-      <c r="D92" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>DU-91</t>
         </is>
       </c>
       <c r="E92" s="1" t="inlineStr">
@@ -8787,9 +8787,9 @@
       </c>
     </row>
     <row r="93">
-      <c r="D93" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>DU-92</t>
         </is>
       </c>
       <c r="E93" s="1" t="inlineStr">
@@ -8869,9 +8869,9 @@
       </c>
     </row>
     <row r="94">
-      <c r="D94" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>DU-93</t>
         </is>
       </c>
       <c r="E94" s="1" t="inlineStr">
@@ -8951,9 +8951,9 @@
       </c>
     </row>
     <row r="95">
-      <c r="D95" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>DU-94</t>
         </is>
       </c>
       <c r="E95" s="1" t="inlineStr">
@@ -9033,9 +9033,9 @@
       </c>
     </row>
     <row r="96">
-      <c r="D96" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>DU-95</t>
         </is>
       </c>
       <c r="E96" s="1" t="inlineStr">
@@ -9115,9 +9115,9 @@
       </c>
     </row>
     <row r="97">
-      <c r="D97" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>DU-96</t>
         </is>
       </c>
       <c r="E97" s="1" t="inlineStr">
@@ -9197,11 +9197,6 @@
       </c>
     </row>
     <row r="98">
-      <c r="D98" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E98" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -9279,11 +9274,6 @@
       </c>
     </row>
     <row r="99">
-      <c r="D99" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E99" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -9361,11 +9351,6 @@
       </c>
     </row>
     <row r="100">
-      <c r="D100" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E100" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -9443,11 +9428,6 @@
       </c>
     </row>
     <row r="101">
-      <c r="D101" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E101" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -9525,11 +9505,6 @@
       </c>
     </row>
     <row r="102">
-      <c r="D102" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E102" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -9607,11 +9582,6 @@
       </c>
     </row>
     <row r="103">
-      <c r="D103" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E103" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -9689,11 +9659,6 @@
       </c>
     </row>
     <row r="104">
-      <c r="D104" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E104" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -9771,11 +9736,6 @@
       </c>
     </row>
     <row r="105">
-      <c r="D105" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E105" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -9853,11 +9813,6 @@
       </c>
     </row>
     <row r="106">
-      <c r="D106" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E106" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -9935,11 +9890,6 @@
       </c>
     </row>
     <row r="107">
-      <c r="D107" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E107" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10017,11 +9967,6 @@
       </c>
     </row>
     <row r="108">
-      <c r="D108" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E108" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10099,11 +10044,6 @@
       </c>
     </row>
     <row r="109">
-      <c r="D109" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E109" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10181,11 +10121,6 @@
       </c>
     </row>
     <row r="110">
-      <c r="D110" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E110" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10263,11 +10198,6 @@
       </c>
     </row>
     <row r="111">
-      <c r="D111" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E111" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10345,11 +10275,6 @@
       </c>
     </row>
     <row r="112">
-      <c r="D112" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E112" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10427,11 +10352,6 @@
       </c>
     </row>
     <row r="113">
-      <c r="D113" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E113" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10509,11 +10429,6 @@
       </c>
     </row>
     <row r="114">
-      <c r="D114" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E114" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10591,11 +10506,6 @@
       </c>
     </row>
     <row r="115">
-      <c r="D115" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E115" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10673,11 +10583,6 @@
       </c>
     </row>
     <row r="116">
-      <c r="D116" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E116" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10755,11 +10660,6 @@
       </c>
     </row>
     <row r="117">
-      <c r="D117" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E117" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10837,11 +10737,6 @@
       </c>
     </row>
     <row r="118">
-      <c r="D118" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E118" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -10919,11 +10814,6 @@
       </c>
     </row>
     <row r="119">
-      <c r="D119" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E119" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11001,11 +10891,6 @@
       </c>
     </row>
     <row r="120">
-      <c r="D120" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E120" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11083,11 +10968,6 @@
       </c>
     </row>
     <row r="121">
-      <c r="D121" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E121" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11165,11 +11045,6 @@
       </c>
     </row>
     <row r="122">
-      <c r="D122" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E122" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11247,11 +11122,6 @@
       </c>
     </row>
     <row r="123">
-      <c r="D123" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E123" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11329,11 +11199,6 @@
       </c>
     </row>
     <row r="124">
-      <c r="D124" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E124" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11411,11 +11276,6 @@
       </c>
     </row>
     <row r="125">
-      <c r="D125" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E125" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11493,11 +11353,6 @@
       </c>
     </row>
     <row r="126">
-      <c r="D126" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E126" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11575,11 +11430,6 @@
       </c>
     </row>
     <row r="127">
-      <c r="D127" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E127" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11657,11 +11507,6 @@
       </c>
     </row>
     <row r="128">
-      <c r="D128" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E128" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11739,11 +11584,6 @@
       </c>
     </row>
     <row r="129">
-      <c r="D129" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E129" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11821,11 +11661,6 @@
       </c>
     </row>
     <row r="130">
-      <c r="D130" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E130" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11903,11 +11738,6 @@
       </c>
     </row>
     <row r="131">
-      <c r="D131" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E131" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -11985,11 +11815,6 @@
       </c>
     </row>
     <row r="132">
-      <c r="D132" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E132" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12067,11 +11892,6 @@
       </c>
     </row>
     <row r="133">
-      <c r="D133" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E133" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12149,11 +11969,6 @@
       </c>
     </row>
     <row r="134">
-      <c r="D134" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E134" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12231,11 +12046,6 @@
       </c>
     </row>
     <row r="135">
-      <c r="D135" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E135" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12313,11 +12123,6 @@
       </c>
     </row>
     <row r="136">
-      <c r="D136" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E136" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12395,11 +12200,6 @@
       </c>
     </row>
     <row r="137">
-      <c r="D137" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E137" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12477,11 +12277,6 @@
       </c>
     </row>
     <row r="138">
-      <c r="D138" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E138" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12559,11 +12354,6 @@
       </c>
     </row>
     <row r="139">
-      <c r="D139" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E139" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12641,11 +12431,6 @@
       </c>
     </row>
     <row r="140">
-      <c r="D140" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E140" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12723,11 +12508,6 @@
       </c>
     </row>
     <row r="141">
-      <c r="D141" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E141" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12805,11 +12585,6 @@
       </c>
     </row>
     <row r="142">
-      <c r="D142" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E142" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12887,11 +12662,6 @@
       </c>
     </row>
     <row r="143">
-      <c r="D143" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E143" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -12969,11 +12739,6 @@
       </c>
     </row>
     <row r="144">
-      <c r="D144" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E144" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13051,11 +12816,6 @@
       </c>
     </row>
     <row r="145">
-      <c r="D145" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E145" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13133,11 +12893,6 @@
       </c>
     </row>
     <row r="146">
-      <c r="D146" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E146" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13215,11 +12970,6 @@
       </c>
     </row>
     <row r="147">
-      <c r="D147" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E147" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13297,11 +13047,6 @@
       </c>
     </row>
     <row r="148">
-      <c r="D148" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E148" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13379,11 +13124,6 @@
       </c>
     </row>
     <row r="149">
-      <c r="D149" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E149" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13461,11 +13201,6 @@
       </c>
     </row>
     <row r="150">
-      <c r="D150" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E150" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13543,11 +13278,6 @@
       </c>
     </row>
     <row r="151">
-      <c r="D151" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E151" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13625,11 +13355,6 @@
       </c>
     </row>
     <row r="152">
-      <c r="D152" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E152" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13707,11 +13432,6 @@
       </c>
     </row>
     <row r="153">
-      <c r="D153" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E153" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13789,11 +13509,6 @@
       </c>
     </row>
     <row r="154">
-      <c r="D154" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E154" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13871,11 +13586,6 @@
       </c>
     </row>
     <row r="155">
-      <c r="D155" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E155" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -13953,11 +13663,6 @@
       </c>
     </row>
     <row r="156">
-      <c r="D156" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E156" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14035,11 +13740,6 @@
       </c>
     </row>
     <row r="157">
-      <c r="D157" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E157" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14117,11 +13817,6 @@
       </c>
     </row>
     <row r="158">
-      <c r="D158" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E158" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14199,11 +13894,6 @@
       </c>
     </row>
     <row r="159">
-      <c r="D159" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E159" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14281,11 +13971,6 @@
       </c>
     </row>
     <row r="160">
-      <c r="D160" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E160" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14363,11 +14048,6 @@
       </c>
     </row>
     <row r="161">
-      <c r="D161" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E161" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14445,11 +14125,6 @@
       </c>
     </row>
     <row r="162">
-      <c r="D162" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E162" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14527,11 +14202,6 @@
       </c>
     </row>
     <row r="163">
-      <c r="D163" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E163" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14609,11 +14279,6 @@
       </c>
     </row>
     <row r="164">
-      <c r="D164" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E164" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14691,11 +14356,6 @@
       </c>
     </row>
     <row r="165">
-      <c r="D165" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E165" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14773,11 +14433,6 @@
       </c>
     </row>
     <row r="166">
-      <c r="D166" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E166" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14855,11 +14510,6 @@
       </c>
     </row>
     <row r="167">
-      <c r="D167" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E167" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -14937,11 +14587,6 @@
       </c>
     </row>
     <row r="168">
-      <c r="D168" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E168" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15019,11 +14664,6 @@
       </c>
     </row>
     <row r="169">
-      <c r="D169" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E169" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15101,11 +14741,6 @@
       </c>
     </row>
     <row r="170">
-      <c r="D170" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E170" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15183,11 +14818,6 @@
       </c>
     </row>
     <row r="171">
-      <c r="D171" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E171" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15265,11 +14895,6 @@
       </c>
     </row>
     <row r="172">
-      <c r="D172" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E172" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15347,11 +14972,6 @@
       </c>
     </row>
     <row r="173">
-      <c r="D173" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E173" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15429,11 +15049,6 @@
       </c>
     </row>
     <row r="174">
-      <c r="D174" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E174" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15511,11 +15126,6 @@
       </c>
     </row>
     <row r="175">
-      <c r="D175" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E175" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15593,11 +15203,6 @@
       </c>
     </row>
     <row r="176">
-      <c r="D176" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E176" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15675,11 +15280,6 @@
       </c>
     </row>
     <row r="177">
-      <c r="D177" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E177" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15757,11 +15357,6 @@
       </c>
     </row>
     <row r="178">
-      <c r="D178" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E178" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15839,11 +15434,6 @@
       </c>
     </row>
     <row r="179">
-      <c r="D179" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E179" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -15921,11 +15511,6 @@
       </c>
     </row>
     <row r="180">
-      <c r="D180" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E180" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16003,11 +15588,6 @@
       </c>
     </row>
     <row r="181">
-      <c r="D181" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E181" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16085,11 +15665,6 @@
       </c>
     </row>
     <row r="182">
-      <c r="D182" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E182" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16167,11 +15742,6 @@
       </c>
     </row>
     <row r="183">
-      <c r="D183" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E183" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16249,11 +15819,6 @@
       </c>
     </row>
     <row r="184">
-      <c r="D184" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E184" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16331,11 +15896,6 @@
       </c>
     </row>
     <row r="185">
-      <c r="D185" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E185" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16413,11 +15973,6 @@
       </c>
     </row>
     <row r="186">
-      <c r="D186" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E186" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16495,11 +16050,6 @@
       </c>
     </row>
     <row r="187">
-      <c r="D187" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E187" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16577,11 +16127,6 @@
       </c>
     </row>
     <row r="188">
-      <c r="D188" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E188" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16659,11 +16204,6 @@
       </c>
     </row>
     <row r="189">
-      <c r="D189" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E189" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16741,11 +16281,6 @@
       </c>
     </row>
     <row r="190">
-      <c r="D190" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E190" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16823,11 +16358,6 @@
       </c>
     </row>
     <row r="191">
-      <c r="D191" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E191" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16905,11 +16435,6 @@
       </c>
     </row>
     <row r="192">
-      <c r="D192" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E192" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -16987,11 +16512,6 @@
       </c>
     </row>
     <row r="193">
-      <c r="D193" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E193" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17069,11 +16589,6 @@
       </c>
     </row>
     <row r="194">
-      <c r="D194" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E194" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17151,11 +16666,6 @@
       </c>
     </row>
     <row r="195">
-      <c r="D195" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E195" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17233,11 +16743,6 @@
       </c>
     </row>
     <row r="196">
-      <c r="D196" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E196" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17315,11 +16820,6 @@
       </c>
     </row>
     <row r="197">
-      <c r="D197" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E197" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17397,11 +16897,6 @@
       </c>
     </row>
     <row r="198">
-      <c r="D198" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E198" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17479,11 +16974,6 @@
       </c>
     </row>
     <row r="199">
-      <c r="D199" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E199" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17561,11 +17051,6 @@
       </c>
     </row>
     <row r="200">
-      <c r="D200" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E200" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17643,11 +17128,6 @@
       </c>
     </row>
     <row r="201">
-      <c r="D201" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E201" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17725,11 +17205,6 @@
       </c>
     </row>
     <row r="202">
-      <c r="D202" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E202" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17807,11 +17282,6 @@
       </c>
     </row>
     <row r="203">
-      <c r="D203" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E203" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17889,11 +17359,6 @@
       </c>
     </row>
     <row r="204">
-      <c r="D204" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E204" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -17971,11 +17436,6 @@
       </c>
     </row>
     <row r="205">
-      <c r="D205" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E205" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18053,11 +17513,6 @@
       </c>
     </row>
     <row r="206">
-      <c r="D206" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E206" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18135,11 +17590,6 @@
       </c>
     </row>
     <row r="207">
-      <c r="D207" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E207" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18217,11 +17667,6 @@
       </c>
     </row>
     <row r="208">
-      <c r="D208" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E208" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18299,11 +17744,6 @@
       </c>
     </row>
     <row r="209">
-      <c r="D209" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E209" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18381,11 +17821,6 @@
       </c>
     </row>
     <row r="210">
-      <c r="D210" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E210" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18463,11 +17898,6 @@
       </c>
     </row>
     <row r="211">
-      <c r="D211" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E211" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18545,11 +17975,6 @@
       </c>
     </row>
     <row r="212">
-      <c r="D212" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E212" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18627,11 +18052,6 @@
       </c>
     </row>
     <row r="213">
-      <c r="D213" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E213" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18709,11 +18129,6 @@
       </c>
     </row>
     <row r="214">
-      <c r="D214" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E214" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18791,11 +18206,6 @@
       </c>
     </row>
     <row r="215">
-      <c r="D215" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E215" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18873,11 +18283,6 @@
       </c>
     </row>
     <row r="216">
-      <c r="D216" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E216" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -18955,11 +18360,6 @@
       </c>
     </row>
     <row r="217">
-      <c r="D217" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E217" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19037,11 +18437,6 @@
       </c>
     </row>
     <row r="218">
-      <c r="D218" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E218" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19119,11 +18514,6 @@
       </c>
     </row>
     <row r="219">
-      <c r="D219" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E219" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19201,11 +18591,6 @@
       </c>
     </row>
     <row r="220">
-      <c r="D220" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E220" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19283,11 +18668,6 @@
       </c>
     </row>
     <row r="221">
-      <c r="D221" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E221" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19365,11 +18745,6 @@
       </c>
     </row>
     <row r="222">
-      <c r="D222" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E222" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19447,11 +18822,6 @@
       </c>
     </row>
     <row r="223">
-      <c r="D223" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E223" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19529,11 +18899,6 @@
       </c>
     </row>
     <row r="224">
-      <c r="D224" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E224" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19611,11 +18976,6 @@
       </c>
     </row>
     <row r="225">
-      <c r="D225" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E225" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19693,11 +19053,6 @@
       </c>
     </row>
     <row r="226">
-      <c r="D226" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E226" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19775,11 +19130,6 @@
       </c>
     </row>
     <row r="227">
-      <c r="D227" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E227" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19857,11 +19207,6 @@
       </c>
     </row>
     <row r="228">
-      <c r="D228" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E228" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -19939,11 +19284,6 @@
       </c>
     </row>
     <row r="229">
-      <c r="D229" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E229" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20021,11 +19361,6 @@
       </c>
     </row>
     <row r="230">
-      <c r="D230" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E230" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20103,11 +19438,6 @@
       </c>
     </row>
     <row r="231">
-      <c r="D231" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E231" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20185,11 +19515,6 @@
       </c>
     </row>
     <row r="232">
-      <c r="D232" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E232" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20267,11 +19592,6 @@
       </c>
     </row>
     <row r="233">
-      <c r="D233" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E233" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20349,11 +19669,6 @@
       </c>
     </row>
     <row r="234">
-      <c r="D234" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E234" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20431,11 +19746,6 @@
       </c>
     </row>
     <row r="235">
-      <c r="D235" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E235" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20513,11 +19823,6 @@
       </c>
     </row>
     <row r="236">
-      <c r="D236" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E236" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20595,11 +19900,6 @@
       </c>
     </row>
     <row r="237">
-      <c r="D237" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E237" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20677,11 +19977,6 @@
       </c>
     </row>
     <row r="238">
-      <c r="D238" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E238" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20759,11 +20054,6 @@
       </c>
     </row>
     <row r="239">
-      <c r="D239" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E239" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20841,11 +20131,6 @@
       </c>
     </row>
     <row r="240">
-      <c r="D240" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E240" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -20923,11 +20208,6 @@
       </c>
     </row>
     <row r="241">
-      <c r="D241" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E241" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21005,11 +20285,6 @@
       </c>
     </row>
     <row r="242">
-      <c r="D242" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E242" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21087,11 +20362,6 @@
       </c>
     </row>
     <row r="243">
-      <c r="D243" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E243" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21169,11 +20439,6 @@
       </c>
     </row>
     <row r="244">
-      <c r="D244" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E244" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21251,11 +20516,6 @@
       </c>
     </row>
     <row r="245">
-      <c r="D245" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E245" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21333,11 +20593,6 @@
       </c>
     </row>
     <row r="246">
-      <c r="D246" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E246" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21415,11 +20670,6 @@
       </c>
     </row>
     <row r="247">
-      <c r="D247" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E247" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21497,11 +20747,6 @@
       </c>
     </row>
     <row r="248">
-      <c r="D248" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E248" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21579,11 +20824,6 @@
       </c>
     </row>
     <row r="249">
-      <c r="D249" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E249" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21661,11 +20901,6 @@
       </c>
     </row>
     <row r="250">
-      <c r="D250" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E250" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21743,11 +20978,6 @@
       </c>
     </row>
     <row r="251">
-      <c r="D251" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E251" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21825,11 +21055,6 @@
       </c>
     </row>
     <row r="252">
-      <c r="D252" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E252" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21907,11 +21132,6 @@
       </c>
     </row>
     <row r="253">
-      <c r="D253" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E253" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -21989,11 +21209,6 @@
       </c>
     </row>
     <row r="254">
-      <c r="D254" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E254" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22071,11 +21286,6 @@
       </c>
     </row>
     <row r="255">
-      <c r="D255" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E255" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22153,11 +21363,6 @@
       </c>
     </row>
     <row r="256">
-      <c r="D256" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E256" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22235,11 +21440,6 @@
       </c>
     </row>
     <row r="257">
-      <c r="D257" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E257" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22317,11 +21517,6 @@
       </c>
     </row>
     <row r="258">
-      <c r="D258" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E258" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22399,11 +21594,6 @@
       </c>
     </row>
     <row r="259">
-      <c r="D259" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E259" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22481,11 +21671,6 @@
       </c>
     </row>
     <row r="260">
-      <c r="D260" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E260" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22563,11 +21748,6 @@
       </c>
     </row>
     <row r="261">
-      <c r="D261" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E261" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22645,11 +21825,6 @@
       </c>
     </row>
     <row r="262">
-      <c r="D262" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E262" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22727,11 +21902,6 @@
       </c>
     </row>
     <row r="263">
-      <c r="D263" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E263" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22809,11 +21979,6 @@
       </c>
     </row>
     <row r="264">
-      <c r="D264" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E264" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22891,11 +22056,6 @@
       </c>
     </row>
     <row r="265">
-      <c r="D265" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E265" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -22973,11 +22133,6 @@
       </c>
     </row>
     <row r="266">
-      <c r="D266" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E266" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23055,11 +22210,6 @@
       </c>
     </row>
     <row r="267">
-      <c r="D267" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E267" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23137,11 +22287,6 @@
       </c>
     </row>
     <row r="268">
-      <c r="D268" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E268" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23219,11 +22364,6 @@
       </c>
     </row>
     <row r="269">
-      <c r="D269" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E269" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23301,11 +22441,6 @@
       </c>
     </row>
     <row r="270">
-      <c r="D270" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E270" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23383,11 +22518,6 @@
       </c>
     </row>
     <row r="271">
-      <c r="D271" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E271" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23465,11 +22595,6 @@
       </c>
     </row>
     <row r="272">
-      <c r="D272" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E272" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23547,11 +22672,6 @@
       </c>
     </row>
     <row r="273">
-      <c r="D273" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E273" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23629,11 +22749,6 @@
       </c>
     </row>
     <row r="274">
-      <c r="D274" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E274" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23711,11 +22826,6 @@
       </c>
     </row>
     <row r="275">
-      <c r="D275" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E275" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23793,11 +22903,6 @@
       </c>
     </row>
     <row r="276">
-      <c r="D276" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E276" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23875,11 +22980,6 @@
       </c>
     </row>
     <row r="277">
-      <c r="D277" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E277" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -23957,11 +23057,6 @@
       </c>
     </row>
     <row r="278">
-      <c r="D278" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E278" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -24039,11 +23134,6 @@
       </c>
     </row>
     <row r="279">
-      <c r="D279" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E279" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -24121,11 +23211,6 @@
       </c>
     </row>
     <row r="280">
-      <c r="D280" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E280" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -24203,11 +23288,6 @@
       </c>
     </row>
     <row r="281">
-      <c r="D281" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E281" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -24285,11 +23365,6 @@
       </c>
     </row>
     <row r="282">
-      <c r="D282" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E282" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -24367,11 +23442,6 @@
       </c>
     </row>
     <row r="283">
-      <c r="D283" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E283" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -24449,11 +23519,6 @@
       </c>
     </row>
     <row r="284">
-      <c r="D284" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E284" s="1" t="inlineStr">
         <is>
           <t>6</t>
@@ -24531,11 +23596,6 @@
       </c>
     </row>
     <row r="285">
-      <c r="D285" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
       <c r="E285" s="1" t="inlineStr">
         <is>
           <t>6</t>

--- a/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
@@ -667,17 +667,17 @@
     <row r="2" ht="17.25" customFormat="1" customHeight="1" s="13">
       <c r="A2" s="15" t="inlineStr">
         <is>
-          <t>GSD240104610D001</t>
+          <t>GSD231214007D001</t>
         </is>
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>BJ24140611-DF031XXXXXFX-N002L001</t>
+          <t>BJ23BD0008-DF017AXXXXXFX-N002J019P001K490</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240111-1AFJ01</t>
+          <t>NJ-20240116-1AFJ01</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -764,17 +764,17 @@
     <row r="3" customFormat="1" s="13">
       <c r="A3" s="10" t="inlineStr">
         <is>
-          <t>GSD240109012D001</t>
+          <t>GSD231214009D001</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>PB24190012-DF037AXXXXXFX-N002J019</t>
+          <t>BJ23BD0010-DF017AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240111-XXFJ02</t>
+          <t>NJ-20240116-1AFJ02</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
@@ -861,17 +861,17 @@
     <row r="4" customFormat="1" s="13">
       <c r="A4" s="10" t="inlineStr">
         <is>
-          <t>GSD240109013D001</t>
+          <t>GSD231219011D001</t>
         </is>
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>PB24190013-DF037AXXXXXFX-N002J019</t>
+          <t>BP23BJ0011-DF031XXXXXFX-N002J019P002</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240111-XXFJ03</t>
+          <t>NJ-20240116-1AFJ03</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
@@ -958,17 +958,17 @@
     <row r="5" customFormat="1" s="13">
       <c r="A5" s="10" t="inlineStr">
         <is>
-          <t>GSD230926089D001</t>
+          <t>GSD231222018D001</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>BJ239R0089-DF037AXXXXXFX-N002J019</t>
+          <t>NT23BM0015-DF037AXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@4</t>
+          <t>NJ-20240116-1AFJ04</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
@@ -1055,17 +1055,17 @@
     <row r="6">
       <c r="A6" s="16" t="inlineStr">
         <is>
-          <t>GSD230926088D001</t>
+          <t>GSD231225005D001</t>
         </is>
       </c>
       <c r="B6" s="16" t="inlineStr">
         <is>
-          <t>BJ239R0088-DF037AXXXXXFX-N002J019</t>
+          <t>NT23BQ0003-DF011XXXXXFX-N002</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@5</t>
+          <t>NJ-20240116-1AFJ05</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
@@ -1152,17 +1152,17 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GSD230926087D001</t>
+          <t>GSD231226002D001</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>BJ239R0087-DF037AXXXXXFX-N002J019</t>
+          <t>NT23BR0002-DF011XXXXXFX-N002</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@6</t>
+          <t>NJ-20240116-1AFJ06</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -1249,17 +1249,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GSD230926086D001</t>
+          <t>GSD231226003D001</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>BJ239R0086-DF037AXXXXXFX-N002J019</t>
+          <t>BJ23BR0003-DF011XXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@7</t>
+          <t>NJ-20240116-1AFJ07</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
@@ -1346,17 +1346,17 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GSD230926056D002</t>
+          <t>GSD231226004D001</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>PB239R0056-DF037AXXXXXFX-N002J019</t>
+          <t>BJ23BR0004-DF011XXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@8</t>
+          <t>NJ-20240116-1AFJ08</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -1443,17 +1443,17 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GSD230926075D001</t>
+          <t>GSD240103009D001</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>PB239R0075-DF037AXXXXXFX-N002J019</t>
+          <t>NT24130010-DF011XXXXXFX-N002</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@9</t>
+          <t>NJ-20240116-1AFJ09</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -1540,17 +1540,17 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GSD230926074D001</t>
+          <t>GSD240104611D001</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>PB239R0074-DF037AXXXXXFX-N002J019</t>
+          <t>BJ24140612-DF031XXXXXFX-N002L001</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-201-B-1@1</t>
+          <t>NJ-20240116-1AFJ010</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
@@ -1637,17 +1637,17 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GSD230926072D001</t>
+          <t>GSD240104612D001</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>PB239R0072-DF037AXXXXXFX-N002J019</t>
+          <t>BJ24140613-DF031XXXXXFX-N002L001</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@1</t>
+          <t>NJ-20240116-1AFJ011</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
@@ -1734,17 +1734,17 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GSD230926063D001</t>
+          <t>GSD240104613D001</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>PB239R0063-DF037AXXXXXFX-N002J019</t>
+          <t>BJ24140614-DF031XXXXXFX-N002L001</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@2</t>
+          <t>NJ-20240116-1AFJ012</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
@@ -1831,17 +1831,17 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GSD230926071D001</t>
+          <t>GSD240104614D001</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>PB239R0071-DF037AXXXXXFX-N002J019</t>
+          <t>BJ24140615-DF031XXXXXFX-N002L001</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@3</t>
+          <t>NJ-20240116-1AFJ013</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
@@ -1928,17 +1928,17 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GSD230926070D001</t>
+          <t>GSD240104615D001</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>PB239R0070-DF037AXXXXXFX-N002J019</t>
+          <t>BJ24140616-DF031XXXXXFX-N002L001</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@4</t>
+          <t>NJ-20240116-1AFJ014</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
@@ -2025,17 +2025,17 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GSD230926069D001</t>
+          <t>GSD240104616D001</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>PB239R0069-DF037AXXXXXFX-N002J019</t>
+          <t>BJ24140617-DF031XXXXXFX-N002L001</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@5</t>
+          <t>NJ-20240116-1AFJ015</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -2122,17 +2122,17 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GSD230926068D001</t>
+          <t>GSD240104617D001</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>PB239R0068-DF037AXXXXXFX-N002J019</t>
+          <t>BJ24140618-DF031XXXXXFX-N002L001</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@6</t>
+          <t>NJ-20240116-1AFJ016</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -2219,17 +2219,17 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GSD230926067D001</t>
+          <t>GSD240105030D001</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>PB239R0067-DF037AXXXXXFX-N002J019</t>
+          <t>NT24151953-DF017AXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@7</t>
+          <t>NJ-20240116-1AFJ017</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -2316,17 +2316,17 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GSD230926066D001</t>
+          <t>GSD240116021D001</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>PB239R0066-DF037AXXXXXFX-N002J019</t>
+          <t>PB241F0024-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@8</t>
+          <t>NJ-20240116-XXFJ018</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
@@ -2413,17 +2413,17 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>GSD230926065D001</t>
+          <t>GSD240116022D001</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>PB239R0065-DF037AXXXXXFX-N002J019</t>
+          <t>PB241F0025-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@9</t>
+          <t>NJ-20240116-XXFJ019</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
@@ -2510,17 +2510,17 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>GSD230926064D001</t>
+          <t>GSD240116023D001</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>PB239R0064-DF037AXXXXXFX-N002J019</t>
+          <t>PB241F0026-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-201-B-1@2</t>
+          <t>NJ-20240116-XXFJ020</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
@@ -2607,17 +2607,17 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>GSD230926062D001</t>
+          <t>GSD240116024D001</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>PB239R0062-DF037AXXXXXFX-N002J019</t>
+          <t>PB241F0027-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@1</t>
+          <t>NJ-20240116-XXFJ021</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>GSD230926061D001</t>
+          <t>GSD240116035D001</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>PB239R0061-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241F0038-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@2</t>
+          <t>NJ-20240116-XXFJ022</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
@@ -2801,17 +2801,17 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>GSD230926060D001</t>
+          <t>GSD240116036D001</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>PB239R0060-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241F0039-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@3</t>
+          <t>NJ-20240116-XXFJ023</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
@@ -2898,17 +2898,17 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>GSD230926059D001</t>
+          <t>GSD240116037D001</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>PB239R0059-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241F0040-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@4</t>
+          <t>NJ-20240116-XXFJ024</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
@@ -2995,17 +2995,17 @@
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>GSD230926058D001</t>
+          <t>GSD240116038D001</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>PB239R0058-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241F0041-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@5</t>
+          <t>NJ-20240116-XXFJ025</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
@@ -3092,17 +3092,17 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>GSD230926057D001</t>
+          <t>GSD240116039D001</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>PB239R0057-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241F0042-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@6</t>
+          <t>NJ-20240116-XXFJ026</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
@@ -3189,17 +3189,17 @@
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>GSD230926056D001</t>
+          <t>GSD240116041D001</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>PB239R0056-DF037AXXXXXFX-N002J019</t>
+          <t>NT241F0043-DF037AXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@7</t>
+          <t>NJ-20240116-XXFJ027</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">

--- a/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
@@ -667,17 +667,17 @@
     <row r="2" ht="17.25" customFormat="1" customHeight="1" s="13">
       <c r="A2" s="15" t="inlineStr">
         <is>
-          <t>GSD231214007D001</t>
+          <t>GSD240116170D001</t>
         </is>
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>BJ23BD0008-DF017AXXXXXFX-N002J019P001K490</t>
+          <t>PB241F0168-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ01</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -764,17 +764,17 @@
     <row r="3" customFormat="1" s="13">
       <c r="A3" s="10" t="inlineStr">
         <is>
-          <t>GSD231214009D001</t>
+          <t>GSD240116170D002</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>BJ23BD0010-DF017AXXXXXFX-N002J019</t>
+          <t>PB241F0168-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ02</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
@@ -861,17 +861,17 @@
     <row r="4" customFormat="1" s="13">
       <c r="A4" s="10" t="inlineStr">
         <is>
-          <t>GSD231219011D001</t>
+          <t>GSD240116171D001</t>
         </is>
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>BP23BJ0011-DF031XXXXXFX-N002J019P002</t>
+          <t>PB241F0169-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ03</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
@@ -958,17 +958,17 @@
     <row r="5" customFormat="1" s="13">
       <c r="A5" s="10" t="inlineStr">
         <is>
-          <t>GSD231222018D001</t>
+          <t>GSD240116172D001</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>NT23BM0015-DF037AXXXXXFX-N002</t>
+          <t>PB241F0170-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ04</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
@@ -1055,17 +1055,17 @@
     <row r="6">
       <c r="A6" s="16" t="inlineStr">
         <is>
-          <t>GSD231225005D001</t>
+          <t>GSD240116173D001</t>
         </is>
       </c>
       <c r="B6" s="16" t="inlineStr">
         <is>
-          <t>NT23BQ0003-DF011XXXXXFX-N002</t>
+          <t>PB241F0171-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ05</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
@@ -1152,17 +1152,17 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GSD231226002D001</t>
+          <t>GSD240116174D001</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>NT23BR0002-DF011XXXXXFX-N002</t>
+          <t>PB241F0172-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ06</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -1249,17 +1249,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GSD231226003D001</t>
+          <t>GSD240116175D001</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>BJ23BR0003-DF011XXXXXFX-N002J019</t>
+          <t>PB241F0173-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ07</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
@@ -1346,17 +1346,17 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GSD231226004D001</t>
+          <t>GSD240116176D001</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>BJ23BR0004-DF011XXXXXFX-N002J019</t>
+          <t>PB241F0174-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ08</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -1443,17 +1443,17 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GSD240103009D001</t>
+          <t>GSD240116177D001</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>NT24130010-DF011XXXXXFX-N002</t>
+          <t>PB241F0175-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ09</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -1540,17 +1540,17 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GSD240104611D001</t>
+          <t>GSD240116178D001</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>BJ24140612-DF031XXXXXFX-N002L001</t>
+          <t>PB241F0176-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ010</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
@@ -1637,17 +1637,17 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GSD240104612D001</t>
+          <t>GSD240116179D001</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>BJ24140613-DF031XXXXXFX-N002L001</t>
+          <t>PB241F0177-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ011</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
@@ -1734,17 +1734,17 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GSD240104613D001</t>
+          <t>GSD240116180D001</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>BJ24140614-DF031XXXXXFX-N002L001</t>
+          <t>PB241F0178-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ012</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
@@ -1831,17 +1831,17 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GSD240104614D001</t>
+          <t>GSD240116181D001</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>BJ24140615-DF031XXXXXFX-N002L001</t>
+          <t>PB241F0179-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ013</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
@@ -1928,17 +1928,17 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GSD240104615D001</t>
+          <t>GSD240116183D001</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>BJ24140616-DF031XXXXXFX-N002L001</t>
+          <t>PB241F0181-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ014</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
@@ -2025,17 +2025,17 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GSD240104616D001</t>
+          <t>GSD240116184D001</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>BJ24140617-DF031XXXXXFX-N002L001</t>
+          <t>PB241F0182-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ015</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -2122,17 +2122,17 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GSD240104617D001</t>
+          <t>GSD240116185D001</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>BJ24140618-DF031XXXXXFX-N002L001</t>
+          <t>PB241F0183-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ016</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -2219,17 +2219,17 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GSD240105030D001</t>
+          <t>GSD240116186D001</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>NT24151953-DF017AXXXXXFX-N002</t>
+          <t>PB241F0184-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ017</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -2316,17 +2316,17 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GSD240116021D001</t>
+          <t>GSD240116187D001</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>PB241F0024-DF037AXXXXXFX-N002J019</t>
+          <t>PB241F0185-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ018</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
@@ -2413,17 +2413,17 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>GSD240116022D001</t>
+          <t>GSD240116188D001</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>PB241F0025-DF037AXXXXXFX-N002J019</t>
+          <t>PB241F0186-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ019</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
@@ -2510,17 +2510,17 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>GSD240116023D001</t>
+          <t>GSD240116189D001</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>PB241F0026-DF037AXXXXXFX-N002J019</t>
+          <t>PB241F0187-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ020</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
@@ -2607,17 +2607,17 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>GSD240116024D001</t>
+          <t>GSD240116200D001</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>PB241F0027-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241F0198-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ021</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>GSD240116035D001</t>
+          <t>GSD240116201D001</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>BJ241F0038-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241F0199-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ022</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
@@ -2801,17 +2801,17 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>GSD240116036D001</t>
+          <t>GSD240116202D001</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>BJ241F0039-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241F0200-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ023</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
@@ -2898,17 +2898,17 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>GSD240116037D001</t>
+          <t>GSD240116203D001</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>BJ241F0040-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241F0201-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ024</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
@@ -2995,17 +2995,17 @@
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>GSD240116038D001</t>
+          <t>GSD240116204D001</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>BJ241F0041-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241F0202-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ025</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
@@ -3092,17 +3092,17 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>GSD240116039D001</t>
+          <t>GSD240116205D001</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>BJ241F0042-DF037AXXXXXFX-N002J019</t>
+          <t>NT241F0203-DF037AXXXXXFX-N002</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ026</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">

--- a/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
@@ -667,17 +667,17 @@
     <row r="2" ht="17.25" customFormat="1" customHeight="1" s="13">
       <c r="A2" s="15" t="inlineStr">
         <is>
-          <t>GSD240116170D001</t>
+          <t>GSD240117078D001</t>
         </is>
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>PB241F0168-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241G0079-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240117-1AFJ01</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">

--- a/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
@@ -667,17 +667,17 @@
     <row r="2" ht="17.25" customFormat="1" customHeight="1" s="13">
       <c r="A2" s="15" t="inlineStr">
         <is>
-          <t>GSD240117078D001</t>
+          <t>GSD240130070D001</t>
         </is>
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>BJ241G0079-DF037AXXXXXFX-N002J019</t>
+          <t>PB241V0068-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240117-1AFJ01</t>
+          <t>NJ-20240130-1AFJ01</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -764,17 +764,17 @@
     <row r="3" customFormat="1" s="13">
       <c r="A3" s="10" t="inlineStr">
         <is>
-          <t>GSD240116170D002</t>
+          <t>GSD240130064D002</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>PB241F0168-DF037AXXXXXFX-N002J019</t>
+          <t>PB241V0062-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
@@ -861,17 +861,17 @@
     <row r="4" customFormat="1" s="13">
       <c r="A4" s="10" t="inlineStr">
         <is>
-          <t>GSD240116171D001</t>
+          <t>GSD240130065D001</t>
         </is>
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>PB241F0169-DF037AXXXXXFX-N002J019</t>
+          <t>PB241V0063-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
@@ -958,17 +958,17 @@
     <row r="5" customFormat="1" s="13">
       <c r="A5" s="10" t="inlineStr">
         <is>
-          <t>GSD240116172D001</t>
+          <t>GSD240130066D001</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>PB241F0170-DF037AXXXXXFX-N002J019</t>
+          <t>PB241V0064-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
@@ -1055,17 +1055,17 @@
     <row r="6">
       <c r="A6" s="16" t="inlineStr">
         <is>
-          <t>GSD240116173D001</t>
+          <t>GSD240130067D001</t>
         </is>
       </c>
       <c r="B6" s="16" t="inlineStr">
         <is>
-          <t>PB241F0171-DF037AXXXXXFX-N002J019</t>
+          <t>PB241V0065-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
@@ -1152,17 +1152,17 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GSD240116174D001</t>
+          <t>GSD240130068D001</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>PB241F0172-DF037AXXXXXFX-N002J019</t>
+          <t>PB241V0066-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -1249,17 +1249,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GSD240116175D001</t>
+          <t>GSD240130069D001</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>PB241F0173-DF037AXXXXXFX-N002J019</t>
+          <t>PB241V0067-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
@@ -1346,17 +1346,17 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GSD240116176D001</t>
+          <t>GSD240130071D001</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>PB241F0174-DF037AXXXXXFX-N002J019</t>
+          <t>PB241V0069-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -1443,17 +1443,17 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GSD240116177D001</t>
+          <t>GSD240130072D001</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>PB241F0175-DF037AXXXXXFX-N002J019</t>
+          <t>PB241V0070-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -1540,17 +1540,17 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GSD240116178D001</t>
+          <t>GSD240130073D001</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>PB241F0176-DF037AXXXXXFX-N002J019</t>
+          <t>PB241V0071-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
@@ -1637,17 +1637,17 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GSD240116179D001</t>
+          <t>GSD240130079D001</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>PB241F0177-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241V0077-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
@@ -1734,17 +1734,17 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GSD240116180D001</t>
+          <t>GSD240130080D001</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>PB241F0178-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241V0078-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
@@ -1831,17 +1831,17 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GSD240116181D001</t>
+          <t>GSD240130081D001</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>PB241F0179-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241V0079-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
@@ -1928,17 +1928,17 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GSD240116183D001</t>
+          <t>GSD240130082D001</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>PB241F0181-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241V0080-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
@@ -2025,17 +2025,17 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GSD240116184D001</t>
+          <t>GSD240130083D001</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>PB241F0182-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241V0081-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -2122,17 +2122,17 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GSD240116185D001</t>
+          <t>GSD240130084D001</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>PB241F0183-DF037AXXXXXFX-N002J019</t>
+          <t>NT241V0082-DF037AXXXXXFX-N002M024</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -2219,17 +2219,17 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GSD240116186D001</t>
+          <t>GSD240124118D001</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>PB241F0184-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241P0117-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -2316,17 +2316,17 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GSD240116187D001</t>
+          <t>GSD240124119D001</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>PB241F0185-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241P0118-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
@@ -2413,17 +2413,17 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>GSD240116188D001</t>
+          <t>GSD240124120D001</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>PB241F0186-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241P0119-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
@@ -2510,17 +2510,17 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>GSD240116189D001</t>
+          <t>GSD240124121D001</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>PB241F0187-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241P0120-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
@@ -2607,17 +2607,17 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>GSD240116200D001</t>
+          <t>GSD240124122D001</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>BJ241F0198-DF037AXXXXXFX-N002J019</t>
+          <t>NT241P0121-DF037AXXXXXFX-N002M024</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>GSD240116201D001</t>
+          <t>GSD240124017D001</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>BJ241F0199-DF037AXXXXXFX-N002J019</t>
+          <t>PB241P0017-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
@@ -2801,17 +2801,17 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>GSD240116202D001</t>
+          <t>GSD240124018D001</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>BJ241F0200-DF037AXXXXXFX-N002J019</t>
+          <t>PB241P0018-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
@@ -2898,17 +2898,17 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>GSD240116203D001</t>
+          <t>GSD240124019D001</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>BJ241F0201-DF037AXXXXXFX-N002J019</t>
+          <t>PB241P0019-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
@@ -2995,17 +2995,17 @@
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>GSD240116204D001</t>
+          <t>GSD240124020D001</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>BJ241F0202-DF037AXXXXXFX-N002J019</t>
+          <t>PB241P0020-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
@@ -3092,17 +3092,17 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>GSD240116205D001</t>
+          <t>GSD240124031D001</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>NT241F0203-DF037AXXXXXFX-N002</t>
+          <t>BJ241P0031-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
@@ -3189,17 +3189,17 @@
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>GSD240116041D001</t>
+          <t>GSD240124032D001</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>NT241F0043-DF037AXXXXXFX-N002</t>
+          <t>BJ241P0032-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ027</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
@@ -3286,17 +3286,17 @@
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>GSD230807019D001</t>
+          <t>GSD240124033D001</t>
         </is>
       </c>
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>PB23870019-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241P0033-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@28</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
@@ -3383,17 +3383,17 @@
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>GSD230807010D001</t>
+          <t>GSD240124034D001</t>
         </is>
       </c>
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t>PB23870010-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241P0034-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@29</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
@@ -3480,17 +3480,17 @@
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>GSD230807018D001</t>
+          <t>GSD240124035D001</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>PB23870018-DF037AXXXXXFX-N002J019</t>
+          <t>BJ241P0035-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@30</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
@@ -3577,17 +3577,17 @@
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>GSD230807017D001</t>
+          <t>GSD240124036D001</t>
         </is>
       </c>
       <c r="B32" s="7" t="inlineStr">
         <is>
-          <t>PB23870017-DF037AXXXXXFX-N002J019</t>
+          <t>NT241P0036-DF037AXXXXXFX-N002M024</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230914-101-A-1@31</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">

--- a/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-明细表批量粘贴导入.xlsx
@@ -667,17 +667,17 @@
     <row r="2" ht="17.25" customFormat="1" customHeight="1" s="13">
       <c r="A2" s="15" t="inlineStr">
         <is>
-          <t>GSD240130070D001</t>
+          <t>GSD240219046D001</t>
         </is>
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>PB241V0068-DF037AXXXXXFX-N002J019</t>
+          <t>PB242J0046-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240130-1AFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -764,17 +764,17 @@
     <row r="3" customFormat="1" s="13">
       <c r="A3" s="10" t="inlineStr">
         <is>
-          <t>GSD240130064D002</t>
+          <t>GSD240219046D002</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>PB241V0062-DF037AXXXXXFX-N002J019</t>
+          <t>PB242J0046-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
@@ -861,17 +861,17 @@
     <row r="4" customFormat="1" s="13">
       <c r="A4" s="10" t="inlineStr">
         <is>
-          <t>GSD240130065D001</t>
+          <t>GSD240219047D001</t>
         </is>
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>PB241V0063-DF037AXXXXXFX-N002J019</t>
+          <t>PB242J0047-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
@@ -958,17 +958,17 @@
     <row r="5" customFormat="1" s="13">
       <c r="A5" s="10" t="inlineStr">
         <is>
-          <t>GSD240130066D001</t>
+          <t>GSD240219048D001</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>PB241V0064-DF037AXXXXXFX-N002J019</t>
+          <t>PB242J0048-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
@@ -1055,17 +1055,17 @@
     <row r="6">
       <c r="A6" s="16" t="inlineStr">
         <is>
-          <t>GSD240130067D001</t>
+          <t>GSD240219050D001</t>
         </is>
       </c>
       <c r="B6" s="16" t="inlineStr">
         <is>
-          <t>PB241V0065-DF037AXXXXXFX-N002J019</t>
+          <t>PB242J0050-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
@@ -1152,17 +1152,17 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GSD240130068D001</t>
+          <t>GSD240219051D001</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>PB241V0066-DF037AXXXXXFX-N002J019</t>
+          <t>PB242J0051-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -1249,17 +1249,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GSD240130069D001</t>
+          <t>GSD240219052D001</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>PB241V0067-DF037AXXXXXFX-N002J019</t>
+          <t>PB242J0052-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
@@ -1346,17 +1346,17 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GSD240130071D001</t>
+          <t>GSD240219053D001</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>PB241V0069-DF037AXXXXXFX-N002J019</t>
+          <t>PB242J0053-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -1443,17 +1443,17 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GSD240130072D001</t>
+          <t>GSD240219054D001</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>PB241V0070-DF037AXXXXXFX-N002J019</t>
+          <t>PB242J0054-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -1540,17 +1540,17 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GSD240130073D001</t>
+          <t>GSD240219055D001</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>PB241V0071-DF037AXXXXXFX-N002J019</t>
+          <t>PB242J0055-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
@@ -1637,17 +1637,17 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GSD240130079D001</t>
+          <t>GSD240219061D001</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>BJ241V0077-DF037AXXXXXFX-N002J019</t>
+          <t>BJ242J0061-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
@@ -1734,17 +1734,17 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GSD240130080D001</t>
+          <t>GSD240219062D001</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>BJ241V0078-DF037AXXXXXFX-N002J019</t>
+          <t>BJ242J0062-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
@@ -1831,17 +1831,17 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GSD240130081D001</t>
+          <t>GSD240219063D001</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>BJ241V0079-DF037AXXXXXFX-N002J019</t>
+          <t>BJ242J0063-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
@@ -1928,17 +1928,17 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GSD240130082D001</t>
+          <t>GSD240219065D001</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>BJ241V0080-DF037AXXXXXFX-N002J019</t>
+          <t>BJ242J0065-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
@@ -2025,17 +2025,17 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GSD240130083D001</t>
+          <t>GSD240219066D001</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>BJ241V0081-DF037AXXXXXFX-N002J019</t>
+          <t>NT242J0066-DF037AXXXXXFX-N002M024</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -2122,17 +2122,17 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GSD240130084D001</t>
+          <t>GSD240219066D001</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>NT241V0082-DF037AXXXXXFX-N002M024</t>
+          <t>NT242J0066-DF037AXXXXXFX-N002M024</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -2219,17 +2219,17 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GSD240124118D001</t>
+          <t>GSD240219066D001</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>BJ241P0117-DF037AXXXXXFX-N002J019</t>
+          <t>NT242J0066-DF037AXXXXXFX-N002M024</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240124-XXFJ01</t>
+          <t>NJ-20240219-XXFJ01</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -2316,17 +2316,17 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GSD240124119D001</t>
+          <t>GSD240208018D001</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>BJ241P0118-DF037AXXXXXFX-N002J019</t>
+          <t>BJ24280018-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240124-XXFJ01</t>
+          <t>NJ-20240208-XXFJ01</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
@@ -2413,17 +2413,17 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>GSD240124120D001</t>
+          <t>GSD240208019D001</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>BJ241P0119-DF037AXXXXXFX-N002J019</t>
+          <t>BJ24280019-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240124-XXFJ01</t>
+          <t>NJ-20240208-XXFJ01</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
@@ -2510,17 +2510,17 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>GSD240124121D001</t>
+          <t>GSD240208020D001</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>BJ241P0120-DF037AXXXXXFX-N002J019</t>
+          <t>BJ24280020-DF037AXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240124-XXFJ01</t>
+          <t>NJ-20240208-XXFJ01</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
@@ -2607,17 +2607,17 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>GSD240124122D001</t>
+          <t>GSD240208021D001</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>NT241P0121-DF037AXXXXXFX-N002M024</t>
+          <t>NT24280021-DF037AXXXXXFX-N002M024</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240124-XXFJ01</t>
+          <t>NJ-20240208-XXFJ01</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
